--- a/data/outputs/management_elsevier/30.xlsx
+++ b/data/outputs/management_elsevier/30.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS12"/>
+  <dimension ref="A1:BU12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -932,6 +942,12 @@
         <is>
           <t>2-s2.0-84944457835</t>
         </is>
+      </c>
+      <c r="BT2" t="n">
+        <v>1542</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -1146,6 +1162,12 @@
           <t>2-s2.0-84944874664</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1814</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1357,6 +1379,12 @@
           <t>2-s2.0-84934874283</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1114</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1569,6 +1597,12 @@
         <is>
           <t>2-s2.0-84935826773</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>1013</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1777,6 +1811,12 @@
           <t>2-s2.0-84934960932</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1583</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1989,6 +2029,12 @@
         <is>
           <t>2-s2.0-84924598310</t>
         </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>2686</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2197,6 +2243,12 @@
           <t>2-s2.0-84927701224</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2414,6 +2466,12 @@
           <t>2-s2.0-84928113647</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1020</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2635,6 +2693,12 @@
           <t>2-s2.0-84919798011</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>2033</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2852,6 +2916,12 @@
           <t>2-s2.0-84923005263</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>3999</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3069,6 +3139,12 @@
           <t>2-s2.0-84919833316</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>11002</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
